--- a/biology/Botanique/Scaevola/Scaevola.xlsx
+++ b/biology/Botanique/Scaevola/Scaevola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scaevola est un genre de plantes de la famille des Goodeniaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se répartissent dans la région indo-pacifique. Le genre est particulièrement bien représenté en Australie, où l'on trouve 71 espèces (dont 70 endémiques). En Nouvelle-Calédonie, le genre compte 9 espèces dont 8 endémiques.
 Deux espèces en particulier, Scaevola plumieri et Scaevola taccada, sont largement représentées sur les plages tropicales de l'océan Indien et du Pacifique.
@@ -543,7 +557,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre comprend de 96 à 130 espèces, parmi lesquelles :
 Scaevola aemula
